--- a/benchmark/MCBatchBulk/output_mean_median_std.xlsx
+++ b/benchmark/MCBatchBulk/output_mean_median_std.xlsx
@@ -7,15 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="run_no_02As1" sheetId="1" r:id="rId1"/>
-    <sheet name="run_no_01As1" sheetId="2" r:id="rId2"/>
-    <sheet name="run_no_04As1" sheetId="3" r:id="rId3"/>
-    <sheet name="run_no_03As1" sheetId="4" r:id="rId4"/>
-    <sheet name="run_no_05As1" sheetId="5" r:id="rId5"/>
-    <sheet name="run_no_06As1" sheetId="6" r:id="rId6"/>
-    <sheet name="run_no_15As1" sheetId="7" r:id="rId7"/>
-    <sheet name="run_no_17As1" sheetId="8" r:id="rId8"/>
-    <sheet name="run_no_14As1" sheetId="9" r:id="rId9"/>
+    <sheet name="02As1" sheetId="1" r:id="rId1"/>
+    <sheet name="01As1" sheetId="2" r:id="rId2"/>
+    <sheet name="04As1" sheetId="3" r:id="rId3"/>
+    <sheet name="03As1" sheetId="4" r:id="rId4"/>
+    <sheet name="05As1" sheetId="5" r:id="rId5"/>
+    <sheet name="06As1" sheetId="6" r:id="rId6"/>
+    <sheet name="15As1" sheetId="7" r:id="rId7"/>
+    <sheet name="17As1" sheetId="8" r:id="rId8"/>
+    <sheet name="14As1" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -449,10 +449,10 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.980844259614569</v>
+        <v>0.9813063018048005</v>
       </c>
       <c r="C2">
-        <v>0.02058620408372717</v>
+        <v>0.02007097852342375</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -461,16 +461,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>5.297790557329275E-05</v>
+        <v>2.785916020222599E-05</v>
       </c>
       <c r="G2">
-        <v>0.0006946112536357983</v>
+        <v>0.0007766907872557657</v>
       </c>
       <c r="H2">
-        <v>0.8171753517523359</v>
+        <v>0.8207108003503183</v>
       </c>
       <c r="I2">
-        <v>0.7324900032532898</v>
+        <v>0.7647796666514017</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -478,10 +478,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9812240083829081</v>
+        <v>0.9816256412992097</v>
       </c>
       <c r="C3">
-        <v>0.02115468076854926</v>
+        <v>0.01993336057619777</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -493,13 +493,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0006779865200653807</v>
+        <v>0.0006501886596309602</v>
       </c>
       <c r="H3">
-        <v>0.8019990616601325</v>
+        <v>0.7503396867488538</v>
       </c>
       <c r="I3">
-        <v>0.6432041271515059</v>
+        <v>0.5630159112029283</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -507,10 +507,10 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.009634554185812577</v>
+        <v>0.00932837918971594</v>
       </c>
       <c r="C4">
-        <v>0.007240531618231753</v>
+        <v>0.007181200442473143</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -519,16 +519,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0002953520028288134</v>
+        <v>0.0001719041979167743</v>
       </c>
       <c r="G4">
-        <v>0.0007525267990092958</v>
+        <v>0.0007352727319033328</v>
       </c>
       <c r="H4">
-        <v>0.2556719167841012</v>
+        <v>0.3035371423859363</v>
       </c>
       <c r="I4">
-        <v>0.4212566555893124</v>
+        <v>0.5517273395806299</v>
       </c>
     </row>
   </sheetData>
@@ -575,10 +575,10 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.949964580943332</v>
+        <v>0.9507387043558237</v>
       </c>
       <c r="C2">
-        <v>0.04852202724895974</v>
+        <v>0.04778746175902026</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -590,13 +590,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002059177558290741</v>
+        <v>0.002098322194697679</v>
       </c>
       <c r="H2">
-        <v>0.9648121976556514</v>
+        <v>0.9714747253024103</v>
       </c>
       <c r="I2">
-        <v>0.9797375379938906</v>
+        <v>0.9785644843866009</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -604,10 +604,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9497248329041741</v>
+        <v>0.949563488189604</v>
       </c>
       <c r="C3">
-        <v>0.04856869371182648</v>
+        <v>0.04815494149789329</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -619,13 +619,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002114934878042556</v>
+        <v>0.002089631720208916</v>
       </c>
       <c r="H3">
-        <v>0.9476383214489538</v>
+        <v>0.9718282145201451</v>
       </c>
       <c r="I3">
-        <v>0.8980186172853268</v>
+        <v>0.9444530364529948</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -633,10 +633,10 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.01104604380464969</v>
+        <v>0.009504046194124404</v>
       </c>
       <c r="C4">
-        <v>0.004882889136686434</v>
+        <v>0.004012553074534428</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -648,13 +648,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.001023403987540171</v>
+        <v>0.001062998249265003</v>
       </c>
       <c r="H4">
-        <v>0.2221905662399345</v>
+        <v>0.1874909896426462</v>
       </c>
       <c r="I4">
-        <v>0.4391903620196316</v>
+        <v>0.3695994865985843</v>
       </c>
     </row>
   </sheetData>
@@ -701,28 +701,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.9225673604794111</v>
+        <v>0.92233246523776</v>
       </c>
       <c r="C2">
-        <v>0.07451051198179584</v>
+        <v>0.07457931685532199</v>
       </c>
       <c r="D2">
-        <v>0.0008250023026208878</v>
+        <v>0.0007395665708420464</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0005785912520049992</v>
+        <v>0.0005821546814619335</v>
       </c>
       <c r="G2">
-        <v>0.00241982718024182</v>
+        <v>0.002072838378285568</v>
       </c>
       <c r="H2">
-        <v>0.5848222912038313</v>
+        <v>0.5933387797695898</v>
       </c>
       <c r="I2">
-        <v>0.4125599754721636</v>
+        <v>0.4183211193172032</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -730,10 +730,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9224872230180911</v>
+        <v>0.9222310333290922</v>
       </c>
       <c r="C3">
-        <v>0.07376459380232647</v>
+        <v>0.07439101001270779</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -745,13 +745,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002370266428049666</v>
+        <v>0.002038240020600643</v>
       </c>
       <c r="H3">
-        <v>0.536422960006212</v>
+        <v>0.514811653936377</v>
       </c>
       <c r="I3">
-        <v>0.2877501067303018</v>
+        <v>0.2650312269326249</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -759,28 +759,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.005152231587681208</v>
+        <v>0.005484747798189851</v>
       </c>
       <c r="C4">
-        <v>0.003197827749833783</v>
+        <v>0.003337660409288854</v>
       </c>
       <c r="D4">
-        <v>0.001438763546991617</v>
+        <v>0.001336465971150538</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.001343033097894079</v>
+        <v>0.00141757580552054</v>
       </c>
       <c r="G4">
-        <v>0.001275488162063344</v>
+        <v>0.001311757709041626</v>
       </c>
       <c r="H4">
-        <v>0.2669371037469932</v>
+        <v>0.2587268981318068</v>
       </c>
       <c r="I4">
-        <v>0.3827595509668745</v>
+        <v>0.3842238859467494</v>
       </c>
     </row>
   </sheetData>
@@ -827,28 +827,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.8922567374232299</v>
+        <v>0.8913396098278136</v>
       </c>
       <c r="C2">
-        <v>0.09721287965370412</v>
+        <v>0.09757158008094369</v>
       </c>
       <c r="D2">
-        <v>0.0003279522031185169</v>
+        <v>0.0002797894640587569</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4.987367469092912E-05</v>
+        <v>8.406038185254345E-05</v>
       </c>
       <c r="G2">
-        <v>0.007031816566002908</v>
+        <v>0.007133175378206296</v>
       </c>
       <c r="H2">
-        <v>0.5980252645734672</v>
+        <v>0.6658881695975597</v>
       </c>
       <c r="I2">
-        <v>0.3874356609354712</v>
+        <v>0.4782065643753504</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -856,10 +856,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.8919485232343523</v>
+        <v>0.8916618782810555</v>
       </c>
       <c r="C3">
-        <v>0.09702184962532263</v>
+        <v>0.09739680002108303</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.007032836028645021</v>
+        <v>0.007145963393733728</v>
       </c>
       <c r="H3">
-        <v>0.587229300691651</v>
+        <v>0.6691932659481797</v>
       </c>
       <c r="I3">
-        <v>0.3448382516171237</v>
+        <v>0.4478196275614197</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -885,28 +885,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.005901738515438328</v>
+        <v>0.007067061941145482</v>
       </c>
       <c r="C4">
-        <v>0.005009016987724061</v>
+        <v>0.005410214734590884</v>
       </c>
       <c r="D4">
-        <v>0.001036780719648803</v>
+        <v>0.0007912632649653159</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0002900530343781046</v>
+        <v>0.0002998893592919052</v>
       </c>
       <c r="G4">
-        <v>0.000639309890996911</v>
+        <v>0.0006605583921881824</v>
       </c>
       <c r="H4">
-        <v>0.1735006298341134</v>
+        <v>0.1874860532600548</v>
       </c>
       <c r="I4">
-        <v>0.2122768170204926</v>
+        <v>0.2688614087553177</v>
       </c>
     </row>
   </sheetData>
@@ -953,10 +953,10 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.876913725586795</v>
+        <v>0.8769291562051852</v>
       </c>
       <c r="C2">
-        <v>0.1237399358220823</v>
+        <v>0.1246959600984574</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4.67058440413179E-05</v>
+        <v>2.454080946313711E-05</v>
       </c>
       <c r="G2">
-        <v>0.001563138036719126</v>
+        <v>0.001650459429191625</v>
       </c>
       <c r="H2">
-        <v>0.6822259100302598</v>
+        <v>0.7350619556111438</v>
       </c>
       <c r="I2">
-        <v>0.5157873157494814</v>
+        <v>0.5848614467792768</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -982,10 +982,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.8764721120246695</v>
+        <v>0.8771818436686473</v>
       </c>
       <c r="C3">
-        <v>0.1237655574086984</v>
+        <v>0.1243624048076802</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -997,13 +997,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001465508464232244</v>
+        <v>0.001583723707614298</v>
       </c>
       <c r="H3">
-        <v>0.6816480287386157</v>
+        <v>0.7170874351838876</v>
       </c>
       <c r="I3">
-        <v>0.4646451584855157</v>
+        <v>0.5142263886882221</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1011,10 +1011,10 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.00629443778457415</v>
+        <v>0.006790225879637136</v>
       </c>
       <c r="C4">
-        <v>0.005494167630187248</v>
+        <v>0.005121979745383074</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0002745387561558596</v>
+        <v>0.000245408094631371</v>
       </c>
       <c r="G4">
-        <v>0.001130960355874202</v>
+        <v>0.0009862958842634917</v>
       </c>
       <c r="H4">
-        <v>0.2255299559776888</v>
+        <v>0.2121210065185958</v>
       </c>
       <c r="I4">
-        <v>0.3457498750959597</v>
+        <v>0.3263980090658716</v>
       </c>
     </row>
   </sheetData>
@@ -1079,28 +1079,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.8069227881426115</v>
+        <v>0.8057054390506941</v>
       </c>
       <c r="C2">
-        <v>0.1604890373882349</v>
+        <v>0.1592557040200822</v>
       </c>
       <c r="D2">
-        <v>0.001030524430071029</v>
+        <v>0.0008850022047406514</v>
       </c>
       <c r="E2">
-        <v>0.02889772562004895</v>
+        <v>0.03041636388537031</v>
       </c>
       <c r="F2">
-        <v>0.0001909210871983724</v>
+        <v>0.000274766376758473</v>
       </c>
       <c r="G2">
-        <v>0.002119646985515834</v>
+        <v>0.002106925149617361</v>
       </c>
       <c r="H2">
-        <v>0.502102520355075</v>
+        <v>0.5045369408393254</v>
       </c>
       <c r="I2">
-        <v>0.2847077164195502</v>
+        <v>0.2911841743050149</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1108,28 +1108,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.8074106209384139</v>
+        <v>0.8056465035957691</v>
       </c>
       <c r="C3">
-        <v>0.160177285269287</v>
+        <v>0.1596324514828802</v>
       </c>
       <c r="D3">
-        <v>0.0002129660023319738</v>
+        <v>0.0001041138514917848</v>
       </c>
       <c r="E3">
-        <v>0.02698966949675936</v>
+        <v>0.02947007314310691</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002147366783779585</v>
+        <v>0.002022101694307487</v>
       </c>
       <c r="H3">
-        <v>0.4891658630571297</v>
+        <v>0.5078038229066684</v>
       </c>
       <c r="I3">
-        <v>0.2392845917865013</v>
+        <v>0.2578647285260704</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1137,28 +1137,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.01431756651888672</v>
+        <v>0.01315032009658187</v>
       </c>
       <c r="C4">
-        <v>0.006666359566957634</v>
+        <v>0.005769076775264536</v>
       </c>
       <c r="D4">
-        <v>0.001441631663717973</v>
+        <v>0.001225489496010012</v>
       </c>
       <c r="E4">
-        <v>0.01498516531521461</v>
+        <v>0.0135197798364821</v>
       </c>
       <c r="F4">
-        <v>0.0006281977870931427</v>
+        <v>0.0009103998066510226</v>
       </c>
       <c r="G4">
-        <v>0.0007000666707949535</v>
+        <v>0.0007222640707380846</v>
       </c>
       <c r="H4">
-        <v>0.1814664603583303</v>
+        <v>0.1923450435842424</v>
       </c>
       <c r="I4">
-        <v>0.2109536186288708</v>
+        <v>0.20397214204439</v>
       </c>
     </row>
   </sheetData>
@@ -1205,28 +1205,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.7219757396331303</v>
+        <v>0.7219889647586674</v>
       </c>
       <c r="C2">
-        <v>0.1669107235338524</v>
+        <v>0.1675509379816543</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1076151803476339</v>
+        <v>0.1069759469429291</v>
       </c>
       <c r="F2">
-        <v>7.341632128091909E-05</v>
+        <v>0.0001506680223273727</v>
       </c>
       <c r="G2">
-        <v>0.001523027649558886</v>
+        <v>0.001574567672250793</v>
       </c>
       <c r="H2">
-        <v>0.6270590015043906</v>
+        <v>0.6500223080650085</v>
       </c>
       <c r="I2">
-        <v>0.434915446367186</v>
+        <v>0.4664421163282003</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1234,28 +1234,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.7218176188460301</v>
+        <v>0.7208610020318342</v>
       </c>
       <c r="C3">
-        <v>0.1669346426620976</v>
+        <v>0.1667326182626188</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.108241965154497</v>
+        <v>0.1052934306337917</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001690924402882917</v>
+        <v>0.001496436724435344</v>
       </c>
       <c r="H3">
-        <v>0.6304534014522913</v>
+        <v>0.6443453479827452</v>
       </c>
       <c r="I3">
-        <v>0.3974726142566888</v>
+        <v>0.4151967721213601</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1263,28 +1263,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.01473448598888531</v>
+        <v>0.01340932530147952</v>
       </c>
       <c r="C4">
-        <v>0.005540600012183851</v>
+        <v>0.005441868958346975</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01374598187810003</v>
+        <v>0.01398481754124763</v>
       </c>
       <c r="F4">
-        <v>0.0003228256768333286</v>
+        <v>0.0006595422812622048</v>
       </c>
       <c r="G4">
-        <v>0.0008556521638744624</v>
+        <v>0.0009749486931931735</v>
       </c>
       <c r="H4">
-        <v>0.2052651770973109</v>
+        <v>0.2106102613067954</v>
       </c>
       <c r="I4">
-        <v>0.2612808666113045</v>
+        <v>0.2925021657703793</v>
       </c>
     </row>
   </sheetData>
@@ -1331,28 +1331,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.7104560852520404</v>
+        <v>0.7084071360115961</v>
       </c>
       <c r="C2">
-        <v>0.1725171872367669</v>
+        <v>0.172061868465344</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1094348331247455</v>
+        <v>0.111007517815715</v>
       </c>
       <c r="F2">
-        <v>0.001147997840162985</v>
+        <v>0.00115054001836173</v>
       </c>
       <c r="G2">
-        <v>0.001271779076224508</v>
+        <v>0.00118571101816808</v>
       </c>
       <c r="H2">
-        <v>0.5330482941595568</v>
+        <v>0.5540227507756404</v>
       </c>
       <c r="I2">
-        <v>0.3191966019522137</v>
+        <v>0.349404612492923</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.7100194907896122</v>
+        <v>0.7088973027138112</v>
       </c>
       <c r="C3">
-        <v>0.1728075744551343</v>
+        <v>0.1723094500953566</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1102780488715205</v>
+        <v>0.1118140340352686</v>
       </c>
       <c r="F3">
-        <v>0.0002702909813298261</v>
+        <v>0.0002496491406102242</v>
       </c>
       <c r="G3">
-        <v>0.001130428013030481</v>
+        <v>0.001122608450595579</v>
       </c>
       <c r="H3">
-        <v>0.4989858781320636</v>
+        <v>0.5347647420457884</v>
       </c>
       <c r="I3">
-        <v>0.2489894915558059</v>
+        <v>0.2859740588146806</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0133794982761929</v>
+        <v>0.01269480736705103</v>
       </c>
       <c r="C4">
-        <v>0.005305148204186761</v>
+        <v>0.005084448124149611</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01401985862850939</v>
+        <v>0.01256577809343829</v>
       </c>
       <c r="F4">
-        <v>0.001536270920791431</v>
+        <v>0.001587715248293373</v>
       </c>
       <c r="G4">
-        <v>0.0009987649126250249</v>
+        <v>0.0009501477366351905</v>
       </c>
       <c r="H4">
-        <v>0.1881760352656074</v>
+        <v>0.2071046290883275</v>
       </c>
       <c r="I4">
-        <v>0.2244394889726498</v>
+        <v>0.2542343135057127</v>
       </c>
     </row>
   </sheetData>
@@ -1457,28 +1457,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.667446758184608</v>
+        <v>0.6701241769653321</v>
       </c>
       <c r="C2">
-        <v>0.1669729605581458</v>
+        <v>0.1672473039261096</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1625515473210905</v>
+        <v>0.160306477770115</v>
       </c>
       <c r="F2">
-        <v>0.0006284535591868215</v>
+        <v>0.0004952967026928264</v>
       </c>
       <c r="G2">
-        <v>0.002036325627764705</v>
+        <v>0.001912483566882873</v>
       </c>
       <c r="H2">
-        <v>0.3625798008292411</v>
+        <v>0.3904923630669873</v>
       </c>
       <c r="I2">
-        <v>0.1478433979318083</v>
+        <v>0.1759120857520196</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1486,28 +1486,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.668423165759741</v>
+        <v>0.6713506603177772</v>
       </c>
       <c r="C3">
-        <v>0.1665365167168315</v>
+        <v>0.1677370588494451</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1612464058482675</v>
+        <v>0.1600886540166039</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002066750936452641</v>
+        <v>0.001896183548885195</v>
       </c>
       <c r="H3">
-        <v>0.3516868600234124</v>
+        <v>0.3634318960401445</v>
       </c>
       <c r="I3">
-        <v>0.1236859911950655</v>
+        <v>0.1321007574448922</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1515,28 +1515,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.01158405421891049</v>
+        <v>0.01052640383388142</v>
       </c>
       <c r="C4">
-        <v>0.005282926792044089</v>
+        <v>0.005652266859499985</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0124610468390359</v>
+        <v>0.01152872076108478</v>
       </c>
       <c r="F4">
-        <v>0.001234298210582055</v>
+        <v>0.001098691661898094</v>
       </c>
       <c r="G4">
-        <v>0.0005250409099825185</v>
+        <v>0.0004214943756245115</v>
       </c>
       <c r="H4">
-        <v>0.1286263320451533</v>
+        <v>0.1538325212177908</v>
       </c>
       <c r="I4">
-        <v>0.1042641747437508</v>
+        <v>0.1355123057401211</v>
       </c>
     </row>
   </sheetData>
